--- a/data/trans_orig/dukeCONF-Clase-trans_orig.xlsx
+++ b/data/trans_orig/dukeCONF-Clase-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>30.41908322009211</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>31.61229027629715</v>
+        <v>31.61229027629714</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>30.070012902275</v>
+        <v>30.07612582094236</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>30.46376895827187</v>
+        <v>30.44205903158439</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29.94949221987804</v>
+        <v>29.92624023625293</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30.91532273877464</v>
+        <v>30.94173893630129</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>29.78157593617076</v>
+        <v>29.78845051499311</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>30.12610553135057</v>
+        <v>30.25447329641171</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>29.99550697868274</v>
+        <v>29.98405078172914</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>31.52648499752752</v>
+        <v>31.56985438293989</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>30.12262961609737</v>
+        <v>30.16857878591619</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30.56995677636191</v>
+        <v>30.55589612057378</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>30.09226278934099</v>
+        <v>30.11924263605374</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>31.31488362104238</v>
+        <v>31.29760138263721</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>31.03368647777279</v>
+        <v>31.05475198459238</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>31.48472018224383</v>
+        <v>31.49715487844322</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30.79063773297867</v>
+        <v>30.84650117621396</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31.76580826683983</v>
+        <v>31.76312773138295</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>30.943662149726</v>
+        <v>30.97774572455211</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>31.34837269555284</v>
+        <v>31.35693515315149</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>30.87597739889424</v>
+        <v>30.86300099885775</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>32.20954061091597</v>
+        <v>32.22756916143711</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>30.88179808102668</v>
+        <v>30.88035172242529</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31.31506539786623</v>
+        <v>31.33848833751335</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>30.72364919996923</v>
+        <v>30.72494612418123</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>31.89435178083908</v>
+        <v>31.87260074213691</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>30.00261713229016</v>
+        <v>29.87197558529027</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>30.57190982242199</v>
+        <v>30.57191671546778</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29.9264215127058</v>
+        <v>29.91642498507264</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30.31021517951936</v>
+        <v>30.26715267233093</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>29.92216721918624</v>
+        <v>29.96788243284168</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>29.5889629751262</v>
+        <v>29.53844015429586</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>29.94797515461965</v>
+        <v>29.95714802087578</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>30.5433800174729</v>
+        <v>30.5158042968787</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>30.13509086721949</v>
+        <v>30.07644160660143</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>30.31305257668066</v>
+        <v>30.28786377230601</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30.05070520505263</v>
+        <v>30.01930167626557</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>30.5166966746261</v>
+        <v>30.53580476679857</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>31.08081125614642</v>
+        <v>31.07173623147784</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>31.59815351195565</v>
+        <v>31.54182653434973</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>30.87358162928474</v>
+        <v>30.86589011137648</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>31.23508180274295</v>
+        <v>31.21805670216457</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>30.94433325385448</v>
+        <v>30.98051767216294</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.86847724321644</v>
+        <v>30.82301611958608</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>30.78596645951298</v>
+        <v>30.76715809564229</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>31.34213901065397</v>
+        <v>31.28443123583329</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>30.89791455216824</v>
+        <v>30.90587388210698</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>31.09607354418399</v>
+        <v>31.07648304840106</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>30.72036144722756</v>
+        <v>30.68745143475011</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>31.14074891236527</v>
+        <v>31.149923749478</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>29.22065222156377</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30.52715941854345</v>
+        <v>30.52715941854346</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>29.59067560337153</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>29.318728567988</v>
+        <v>29.31929223723237</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>30.45856521528076</v>
+        <v>30.44213858620543</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28.81426413013121</v>
+        <v>28.749944745267</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30.03602005886598</v>
+        <v>30.02815852466127</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>28.69333396818018</v>
+        <v>28.6319826069891</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>30.22189223542848</v>
+        <v>30.28272389240529</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>27.50270408788656</v>
+        <v>27.46939185005224</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>30.00409929831168</v>
+        <v>30.01955535486343</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>29.28614605338041</v>
+        <v>29.34084486717096</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30.51596276499014</v>
+        <v>30.51584313490594</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>28.66678254323979</v>
+        <v>28.64355023599084</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>30.15491646843417</v>
+        <v>30.18765797528988</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>30.16400092808885</v>
+        <v>30.22487851470793</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>31.19917184795492</v>
+        <v>31.18187824205185</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29.66370907663086</v>
+        <v>29.65713909053013</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30.98246225644141</v>
+        <v>30.97340875731348</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>30.41130491825118</v>
+        <v>30.43087761416583</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>31.27407361819522</v>
+        <v>31.32215173290959</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>29.41112741733967</v>
+        <v>29.4136709948144</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>31.16394252281248</v>
+        <v>31.14241617805511</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>30.11917875373995</v>
+        <v>30.11221514247387</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31.12126543987659</v>
+        <v>31.11897107729975</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29.4592080648184</v>
+        <v>29.43914106480009</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>30.92722163849362</v>
+        <v>30.91368297232999</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>29.4956454102161</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30.35193943815896</v>
+        <v>30.35193943815897</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>29.23303508866774</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>29.28306696745348</v>
+        <v>29.27144890711966</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>29.71004437774881</v>
+        <v>29.71107434159758</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29.2278533519345</v>
+        <v>29.22378159273355</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30.03588099219361</v>
+        <v>30.02619554492956</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>28.79957784629893</v>
+        <v>28.80496668439097</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>29.38273144889746</v>
+        <v>29.40409244085099</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>29.17716921946472</v>
+        <v>29.17229023195692</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>30.0787275068082</v>
+        <v>30.13436488140275</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>29.20885792934221</v>
+        <v>29.2103441485405</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29.68201413551476</v>
+        <v>29.6959671634779</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29.27479440602432</v>
+        <v>29.28233712532807</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>30.1829753793068</v>
+        <v>30.15345344739832</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>29.89280706501081</v>
+        <v>29.89606856141038</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>30.32725657283417</v>
+        <v>30.34294188954389</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>29.7600686019987</v>
+        <v>29.77294768016456</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>30.65166535649015</v>
+        <v>30.6523816169444</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>29.59367641629151</v>
+        <v>29.65317813630027</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>30.16621285871168</v>
+        <v>30.17664913222755</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>29.84332567686177</v>
+        <v>29.80467034467475</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>30.72647136848977</v>
+        <v>30.77220016565104</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>29.71473240252087</v>
+        <v>29.68585044660036</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>30.19520223525879</v>
+        <v>30.19026892992897</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>29.70688836635896</v>
+        <v>29.6975515918481</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>30.6202917405959</v>
+        <v>30.58861766427679</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>29.0027376341607</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28.66157575718846</v>
+        <v>28.66157575718847</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>28.44353828170711</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>28.95070244901273</v>
+        <v>28.85204774909566</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>29.65767268934808</v>
+        <v>29.72774953073073</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28.54233879815099</v>
+        <v>28.59123888127463</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28.04818416104012</v>
+        <v>28.0413125882967</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>27.9009020686468</v>
+        <v>27.94209420790687</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>29.09527014247282</v>
+        <v>29.08645241944969</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>28.40984437976046</v>
+        <v>28.41205919481233</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>28.37702770846537</v>
+        <v>28.38073242435594</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>28.47674395655321</v>
+        <v>28.44271709411991</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>29.441870455702</v>
+        <v>29.45648912464561</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28.59997934967132</v>
+        <v>28.60215229886708</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>28.41173593937814</v>
+        <v>28.37219890102904</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>30.15870441483148</v>
+        <v>30.09533986624554</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>30.55399936023896</v>
+        <v>30.57867044210864</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>29.40832024023244</v>
+        <v>29.38048267506882</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>29.24419479709239</v>
+        <v>29.26999788519677</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>28.92861309638159</v>
+        <v>28.93081066942678</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>29.84496065931543</v>
+        <v>29.83485701623614</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>29.19852466302657</v>
+        <v>29.17887795155592</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>29.13750436450028</v>
+        <v>29.14993655812766</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>29.26930645270953</v>
+        <v>29.21180622288746</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>30.02257069242716</v>
+        <v>30.01793448336822</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29.16243218600653</v>
+        <v>29.16001039346264</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>29.06179614983533</v>
+        <v>29.04516282861109</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>30.65642992168234</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32.63100986304573</v>
+        <v>32.63100986304575</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>29.17562542723341</v>
@@ -1361,7 +1361,7 @@
         <v>29.28541045074767</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>29.82695276858133</v>
+        <v>29.82695276858134</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>29.65527934806656</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>31.22577721296219</v>
+        <v>31.18142981535384</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>31.05127597014298</v>
+        <v>31.09941723738552</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>30.19564842852616</v>
+        <v>30.1871723449125</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31.8939593562647</v>
+        <v>31.85054408603069</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>28.81542894865768</v>
+        <v>28.82652639697841</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>29.7122231519489</v>
+        <v>29.76795807987594</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>28.97518676728797</v>
+        <v>28.98326489174651</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>29.46897158551637</v>
+        <v>29.45230189735677</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>29.3844756606592</v>
+        <v>29.35076961377317</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>30.11992019570011</v>
+        <v>30.09058046625659</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>29.3137567660845</v>
+        <v>29.28605767165979</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>30.10282397255123</v>
+        <v>30.10067537151682</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>32.07908058065438</v>
+        <v>32.06520354027788</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>32.02019456385106</v>
+        <v>32.04465203204244</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>31.09523925872909</v>
+        <v>31.1359070196759</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>33.26615516609301</v>
+        <v>33.26627015635837</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>29.51640202598889</v>
+        <v>29.51737775079889</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>30.36645181767932</v>
+        <v>30.36029186235192</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>29.5521709762468</v>
+        <v>29.57213994263135</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>30.16020261228221</v>
+        <v>30.20095943679713</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>29.94598046857881</v>
+        <v>29.94558082909349</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>30.64973893759786</v>
+        <v>30.62908262311021</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>29.82994701400917</v>
+        <v>29.81648829490954</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>30.78063146019978</v>
+        <v>30.81431159096249</v>
       </c>
     </row>
     <row r="22">
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>30.05466442070009</v>
+        <v>30.0546644207001</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>30.58508331743556</v>
@@ -1485,7 +1485,7 @@
         <v>29.67575031049498</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30.47459316719383</v>
+        <v>30.47459316719384</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>29.34314719507394</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>29.8683428698373</v>
+        <v>29.86949185106959</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>30.41601086925638</v>
+        <v>30.41131824652817</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>29.51785763519573</v>
+        <v>29.51485260521618</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>30.28106098964844</v>
+        <v>30.26874080053411</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>29.13995157432965</v>
+        <v>29.13779712999611</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>29.85400034255061</v>
+        <v>29.84674180464791</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>29.27151715494523</v>
+        <v>29.26190095461784</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>30.02905378513483</v>
+        <v>30.0237851300384</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>29.5578109275459</v>
+        <v>29.55967241037397</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>30.18889223469483</v>
+        <v>30.17890849724111</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>29.44526228624101</v>
+        <v>29.43461548675458</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>30.20275821119907</v>
+        <v>30.20246305147101</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>30.22176712497611</v>
+        <v>30.23819837091593</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>30.74174714515203</v>
+        <v>30.76036474500589</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29.85551433732626</v>
+        <v>29.83721892714658</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>30.66456313765471</v>
+        <v>30.66183338202845</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>29.51756988093343</v>
+        <v>29.53927560651371</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>30.20205718022287</v>
+        <v>30.21250603937591</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>29.59514614266919</v>
+        <v>29.59105747917699</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>30.34755459091815</v>
+        <v>30.33528029637797</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>29.81678472356152</v>
+        <v>29.81667130635966</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>30.42588528948852</v>
+        <v>30.41514333027479</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>29.67065209373298</v>
+        <v>29.66472525786092</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>30.45422110140354</v>
+        <v>30.45308946970132</v>
       </c>
     </row>
     <row r="25">
